--- a/schema_definitions/template_schema_v1.8.xlsx
+++ b/schema_definitions/template_schema_v1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tudorgroza/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC1CC0-BAF4-8542-BC84-147CD2BC7CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A6D62-0096-984E-B0F3-DBF1C3FABA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38360" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -604,10 +604,10 @@
     <t>raw_sumstats_file</t>
   </si>
   <si>
-    <t>Raw summary stats file</t>
-  </si>
-  <si>
     <t>Raw summary statistics file</t>
+  </si>
+  <si>
+    <t>Raw summary stats file.</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1948,7 +1948,7 @@
         <v>187</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O22" s="6" t="b">
         <v>0</v>
@@ -4152,8 +4152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED4CB50-F135-6F43-A6BC-AC27D4D7EACE}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="5">
-        <v>255</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">

--- a/schema_definitions/template_schema_v1.8.xlsx
+++ b/schema_definitions/template_schema_v1.8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tudorgroza/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tudorgroza/Desktop/Banking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A6D62-0096-984E-B0F3-DBF1C3FABA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC4EE0-88DB-4248-A4AB-2EC813E43CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -1992,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150BB387-D897-2449-8E3B-2908679801E7}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2651,6 +2651,9 @@
       <c r="O16" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="R16" s="12">
+        <v>-1</v>
+      </c>
     </row>
     <row r="18" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O18" s="9"/>
@@ -2667,7 +2670,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4152,7 +4155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED4CB50-F135-6F43-A6BC-AC27D4D7EACE}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>

--- a/schema_definitions/template_schema_v1.8.xlsx
+++ b/schema_definitions/template_schema_v1.8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tudorgroza/Desktop/Banking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhayhurst/Documents/projects/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC4EE0-88DB-4248-A4AB-2EC813E43CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61940CFF-4D12-F248-AD5A-EBAE80AED614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -523,9 +526,6 @@
     <t>^GCST\d+$</t>
   </si>
   <si>
-    <t>readme_file</t>
-  </si>
-  <si>
     <t>Readme file</t>
   </si>
   <si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>Raw summary stats file.</t>
+  </si>
+  <si>
+    <t>readme_text</t>
   </si>
 </sst>
 </file>
@@ -1033,14 +1036,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
@@ -1073,10 +1076,10 @@
         <v>153</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>152</v>
@@ -1100,16 +1103,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1230,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>26</v>
@@ -1277,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R5" s="11">
         <v>255</v>
@@ -1357,7 +1360,7 @@
         <v>44</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>35</v>
@@ -1389,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5" t="b">
         <v>0</v>
@@ -1603,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R13" s="11">
         <v>255</v>
@@ -1688,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R15" s="11">
         <v>255</v>
@@ -1699,7 +1702,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -1737,7 +1740,7 @@
         <v>158</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="5" t="b">
         <v>1</v>
@@ -1772,10 +1775,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="5" t="b">
         <v>1</v>
@@ -1799,7 +1802,7 @@
         <v>24</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O18" s="9" t="b">
         <v>0</v>
@@ -1813,7 +1816,7 @@
         <v>51</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="5" t="b">
         <v>1</v>
@@ -1846,10 +1849,10 @@
         <v>1</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R19" s="11">
         <v>255</v>
@@ -1860,7 +1863,7 @@
         <v>147</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="5" t="b">
         <v>1</v>
@@ -1893,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R20" s="11">
         <v>255</v>
@@ -1904,7 +1907,7 @@
         <v>149</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="5" t="b">
         <v>1</v>
@@ -1937,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R21" s="11">
         <v>255</v>
@@ -1945,10 +1948,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
@@ -1972,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O22" s="6" t="b">
         <v>0</v>
@@ -1992,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150BB387-D897-2449-8E3B-2908679801E7}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="H1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2031,10 +2034,10 @@
         <v>153</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>152</v>
@@ -2058,16 +2061,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -2213,10 +2216,10 @@
         <v>24</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="5" t="s">
@@ -2336,7 +2339,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>123</v>
@@ -2377,7 +2380,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>120</v>
@@ -2708,10 +2711,10 @@
         <v>153</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>152</v>
@@ -2735,16 +2738,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2814,7 +2817,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>97</v>
@@ -2991,7 +2994,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="6" t="b">
         <v>1</v>
@@ -3024,10 +3027,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R8" s="6">
         <v>255</v>
@@ -3147,10 +3150,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R11" s="6">
         <v>255</v>
@@ -4193,10 +4196,10 @@
         <v>153</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>152</v>
@@ -4220,16 +4223,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4333,7 +4336,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>67</v>
@@ -4374,7 +4377,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>64</v>

--- a/schema_definitions/template_schema_v1.8.xlsx
+++ b/schema_definitions/template_schema_v1.8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhayhurst/Documents/projects/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61940CFF-4D12-F248-AD5A-EBAE80AED614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742FEB40-197E-5042-BC3C-0456DE3F0635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
@@ -526,9 +526,6 @@
     <t>^GCST\d+$</t>
   </si>
   <si>
-    <t>Readme file</t>
-  </si>
-  <si>
     <t>Aboriginal Australian|African American or Afro-Caribbean|African unspecified|Asian unspecified|Central Asian|Circumpolar peoples|East Asian|European|Greater Middle Eastern (Middle Eastern, North African or Persian)|Hispanic or Latin American|Native American|NR|Oceanian|Other|Other admixed ancestry|South Asian|South East Asian|Sub-Saharan African</t>
   </si>
   <si>
@@ -571,46 +568,49 @@
     <t>Broad ancestry category that best describes the sample. Multiple values can be listed separated by '|'.</t>
   </si>
   <si>
+    <t>File name of your summary statistics data e.g. my_sumstats.tsv. 'NR' if not providing summary statistics.</t>
+  </si>
+  <si>
+    <t>md5 checksum of the summary stats file.  'NR' if not providing summary statistics.</t>
+  </si>
+  <si>
+    <t>Genome assembly for the summary statistics. 'NR' if not providing summary statistics.</t>
+  </si>
+  <si>
+    <t>MANDATORY-CURATOR</t>
+  </si>
+  <si>
+    <t>MANDATORY-GCST</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>Afghanistan|Albania|Algeria|American Samoa|Andorra|Angola|Anguilla|Antigua and Barbuda|Argentina|Armenia|Australia|Austria|Azerbaijan|Bahamas|Bahrain|Bangladesh|Barbados|Belarus|Belgium|Belize|Benin|Bermuda|Bhutan|Bolivia|Bosnia and Herzegovina|Botswana|Brazil|British Virgin Islands|Brunei Darussalam:Brunei|Bulgaria|Burkina Faso|Burundi|Cambodia|Cameroon|Canada|Cape Verde|Cayman Islands|Central African Republic|Chad|Channel Islands|Chile|China|China, Hong Kong SAR|China, Macao SAR:Macao;Macau|Colombia|Comoros|Congo|Cook Islands|Costa Rica|Croatia|Cuba|Cyprus|Cyprus|Czech Republic:Czechia|Côte d’Ivoire:Cote d’Ivoire;Ivory Coast|Democratic People’s Republic of Korea:North Korea|Democratic Republic of the Congo|Denmark|Djibouti|Dominica|Dominican Republic|Ecuador|Egypt|El Salvador|Equatorial Guinea|Eritrea|Estonia|Ethiopia|Faeroe Islands:Faroe Islands|Falkland Islands (Malvinas)|Fiji|Finland|France|French Guiana|French Polynesia|Gabon|Gambia|Georgia|Germany|Ghana|Gibraltar|Greece|Greenland|Grenada|Guadeloupe|Guam|Guatemala|Guinea|Guinea-Bissau|Guyana|Haiti|Holy See|Honduras|Hong Kong:China, Hong Kong SAR|Hungary|Iceland|India|Indonesia|Iran (Islamic Republic of):Iran|Iraq|Isle of Man|Israel|Italy|Jamaica|Japan|Jordan|Kazakhstan|Kenya|Kiribati|Kuwait|Kyrgyzstan|Lao People’s Democratic Republic:Laos|Latvia|Lebanon|Lesotho|Liberia|Libyan Arab Jamahiriya:Libya|Liechtenstein|Lithuania|Luxembourg|Madagascar|Malawi|Malaysia|Maldives|Mali|Malta|Marshall Islands|Martinique|Mauretania|Mauritius|Mayotte|Mexico|Micronesia (Federated States of):Micronesia;Federated States of Micronesia|Monaco|Mongolia|Montenegro|Montserrat|Morocco|Mozambique|Myanmar|NR|Namibia|Nauru|Nepal|Netherlands|Netherlands Antilles|New Caledonia|New Zealand|Nicaragua|Niger|Nigeria|Niue|Norfolk Island|Norway|Occupied Palestinian Territory:Palestine|Oman|Pakistan|Palau|Panama|Papua New Guinea|Paraguay|Peru|Philippines|Pitcairn|Poland|Portugal|Puerto Rico|Qatar|Republic of Ireland:Ireland|Republic of Korea:South Korea|Republic of Moldova:Moldova|Romania|Russian Federation:Russia|Rwanda|Réunion:Reunion|Saint Kitts and Nevis|Saint Lucia|Saint Vincent and the Grenadines|Saint-Pierre-et-Miquelon|Samoa|San Marino|Saudi Arabia|Senegal|Serbia|Seychelles|Sierra Leone|Singapore|Slovakia|Slovenia|Solomon Islands|Somalia|South Africa|South Sudan|Spain|Sri Lanka|St. Helena|Sudan|Suriname|Swaziland:Eswatini|Sweden|Switzerland|São Tomé and Príncipe:Sao Tome and Principe|Taiwan|Tajikistan|Thailand|The former Yugoslav Republic of Macedonia:North Macedonia|Timor-Leste|Togo|Tokelau|Tonga|Trinidad and Tobago|Tunisia|Turkey|Turkmenistan|Turks and Caicos Islands|Tuvalu|U.K.:UK;United Kingdom;Great Britain;Britain|U.S.:US;USA;United States|U.S. Virgin Islands:US Virgin Islands;United States Virgin Islands|Uganda|Ukraine|United Arab Emirates|United Republic of Tanzania:Tanzania|Uruguay|Uzbekistan|Vanuatu|Venezuela|Viet Nam:Vietnam|Wallis and Futuna Islands|Western Sahara|Yemen|Zambia|Zimbabwe</t>
+  </si>
+  <si>
+    <t>$p-value$</t>
+  </si>
+  <si>
+    <t>1|-5</t>
+  </si>
+  <si>
+    <t>raw_sumstats_file</t>
+  </si>
+  <si>
+    <t>Raw summary statistics file</t>
+  </si>
+  <si>
+    <t>Raw summary stats file.</t>
+  </si>
+  <si>
     <t>Readme text, this text will be written to a publicly available README.txt file</t>
   </si>
   <si>
-    <t>File name of your summary statistics data e.g. my_sumstats.tsv. 'NR' if not providing summary statistics.</t>
-  </si>
-  <si>
-    <t>md5 checksum of the summary stats file.  'NR' if not providing summary statistics.</t>
-  </si>
-  <si>
-    <t>Genome assembly for the summary statistics. 'NR' if not providing summary statistics.</t>
-  </si>
-  <si>
-    <t>MANDATORY-CURATOR</t>
-  </si>
-  <si>
-    <t>MANDATORY-GCST</t>
-  </si>
-  <si>
-    <t>SIZE</t>
-  </si>
-  <si>
-    <t>Afghanistan|Albania|Algeria|American Samoa|Andorra|Angola|Anguilla|Antigua and Barbuda|Argentina|Armenia|Australia|Austria|Azerbaijan|Bahamas|Bahrain|Bangladesh|Barbados|Belarus|Belgium|Belize|Benin|Bermuda|Bhutan|Bolivia|Bosnia and Herzegovina|Botswana|Brazil|British Virgin Islands|Brunei Darussalam:Brunei|Bulgaria|Burkina Faso|Burundi|Cambodia|Cameroon|Canada|Cape Verde|Cayman Islands|Central African Republic|Chad|Channel Islands|Chile|China|China, Hong Kong SAR|China, Macao SAR:Macao;Macau|Colombia|Comoros|Congo|Cook Islands|Costa Rica|Croatia|Cuba|Cyprus|Cyprus|Czech Republic:Czechia|Côte d’Ivoire:Cote d’Ivoire;Ivory Coast|Democratic People’s Republic of Korea:North Korea|Democratic Republic of the Congo|Denmark|Djibouti|Dominica|Dominican Republic|Ecuador|Egypt|El Salvador|Equatorial Guinea|Eritrea|Estonia|Ethiopia|Faeroe Islands:Faroe Islands|Falkland Islands (Malvinas)|Fiji|Finland|France|French Guiana|French Polynesia|Gabon|Gambia|Georgia|Germany|Ghana|Gibraltar|Greece|Greenland|Grenada|Guadeloupe|Guam|Guatemala|Guinea|Guinea-Bissau|Guyana|Haiti|Holy See|Honduras|Hong Kong:China, Hong Kong SAR|Hungary|Iceland|India|Indonesia|Iran (Islamic Republic of):Iran|Iraq|Isle of Man|Israel|Italy|Jamaica|Japan|Jordan|Kazakhstan|Kenya|Kiribati|Kuwait|Kyrgyzstan|Lao People’s Democratic Republic:Laos|Latvia|Lebanon|Lesotho|Liberia|Libyan Arab Jamahiriya:Libya|Liechtenstein|Lithuania|Luxembourg|Madagascar|Malawi|Malaysia|Maldives|Mali|Malta|Marshall Islands|Martinique|Mauretania|Mauritius|Mayotte|Mexico|Micronesia (Federated States of):Micronesia;Federated States of Micronesia|Monaco|Mongolia|Montenegro|Montserrat|Morocco|Mozambique|Myanmar|NR|Namibia|Nauru|Nepal|Netherlands|Netherlands Antilles|New Caledonia|New Zealand|Nicaragua|Niger|Nigeria|Niue|Norfolk Island|Norway|Occupied Palestinian Territory:Palestine|Oman|Pakistan|Palau|Panama|Papua New Guinea|Paraguay|Peru|Philippines|Pitcairn|Poland|Portugal|Puerto Rico|Qatar|Republic of Ireland:Ireland|Republic of Korea:South Korea|Republic of Moldova:Moldova|Romania|Russian Federation:Russia|Rwanda|Réunion:Reunion|Saint Kitts and Nevis|Saint Lucia|Saint Vincent and the Grenadines|Saint-Pierre-et-Miquelon|Samoa|San Marino|Saudi Arabia|Senegal|Serbia|Seychelles|Sierra Leone|Singapore|Slovakia|Slovenia|Solomon Islands|Somalia|South Africa|South Sudan|Spain|Sri Lanka|St. Helena|Sudan|Suriname|Swaziland:Eswatini|Sweden|Switzerland|São Tomé and Príncipe:Sao Tome and Principe|Taiwan|Tajikistan|Thailand|The former Yugoslav Republic of Macedonia:North Macedonia|Timor-Leste|Togo|Tokelau|Tonga|Trinidad and Tobago|Tunisia|Turkey|Turkmenistan|Turks and Caicos Islands|Tuvalu|U.K.:UK;United Kingdom;Great Britain;Britain|U.S.:US;USA;United States|U.S. Virgin Islands:US Virgin Islands;United States Virgin Islands|Uganda|Ukraine|United Arab Emirates|United Republic of Tanzania:Tanzania|Uruguay|Uzbekistan|Vanuatu|Venezuela|Viet Nam:Vietnam|Wallis and Futuna Islands|Western Sahara|Yemen|Zambia|Zimbabwe</t>
-  </si>
-  <si>
-    <t>$p-value$</t>
-  </si>
-  <si>
-    <t>1|-5</t>
-  </si>
-  <si>
-    <t>raw_sumstats_file</t>
-  </si>
-  <si>
-    <t>Raw summary statistics file</t>
-  </si>
-  <si>
-    <t>Raw summary stats file.</t>
-  </si>
-  <si>
-    <t>readme_text</t>
+    <t>readme_file</t>
+  </si>
+  <si>
+    <t>Readme text</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,10 +1076,10 @@
         <v>153</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>152</v>
@@ -1103,16 +1103,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>26</v>
@@ -1280,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R5" s="11">
         <v>255</v>
@@ -1360,7 +1360,7 @@
         <v>44</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>35</v>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R13" s="11">
         <v>255</v>
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R15" s="11">
         <v>255</v>
@@ -1702,7 +1702,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>158</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="5" t="b">
         <v>1</v>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C18" s="5" t="b">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>24</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="O18" s="9" t="b">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>51</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="5" t="b">
         <v>1</v>
@@ -1849,10 +1849,10 @@
         <v>1</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R19" s="11">
         <v>255</v>
@@ -1863,7 +1863,7 @@
         <v>147</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="5" t="b">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R20" s="11">
         <v>255</v>
@@ -1907,7 +1907,7 @@
         <v>149</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="5" t="b">
         <v>1</v>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R21" s="11">
         <v>255</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O22" s="6" t="b">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>153</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>152</v>
@@ -2061,16 +2061,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -2216,10 +2216,10 @@
         <v>24</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="5" t="s">
@@ -2339,7 +2339,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>123</v>
@@ -2380,7 +2380,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>120</v>
@@ -2711,10 +2711,10 @@
         <v>153</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>152</v>
@@ -2738,16 +2738,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2817,7 +2817,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>97</v>
@@ -2994,7 +2994,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="6" t="b">
         <v>1</v>
@@ -3027,10 +3027,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R8" s="6">
         <v>255</v>
@@ -3150,10 +3150,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R11" s="6">
         <v>255</v>
@@ -4196,10 +4196,10 @@
         <v>153</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>152</v>
@@ -4223,16 +4223,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4336,7 +4336,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>67</v>
@@ -4377,7 +4377,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>64</v>

--- a/schema_definitions/template_schema_v1.8.xlsx
+++ b/schema_definitions/template_schema_v1.8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhayhurst/Documents/projects/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742FEB40-197E-5042-BC3C-0456DE3F0635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EDE273-FF9D-704F-BD49-594252BA34F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>The method used to genotype variants in the discovery stage</t>
   </si>
   <si>
-    <t>Genome-wide genotyping array|Targeted genotyping array|Exome genotyping array|Whole genome sequencing</t>
-  </si>
-  <si>
     <t>Manufacturer of the genotyping array used for the discovery stage</t>
   </si>
   <si>
@@ -611,6 +608,9 @@
   </si>
   <si>
     <t>Readme text</t>
+  </si>
+  <si>
+    <t>Genome-wide genotyping array|Targeted genotyping array|Exome genotyping array|Whole genome sequencing|Exome-wide sequencing</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,22 +1067,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -1103,16 +1103,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="6" t="b">
         <v>0</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         <v>24</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="O3" s="6" t="b">
         <v>0</v>
@@ -1227,16 +1227,16 @@
       </c>
       <c r="K4" s="1"/>
       <c r="N4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="R4" s="11">
         <v>255</v>
@@ -1247,7 +1247,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="b">
         <v>1</v>
@@ -1271,19 +1271,19 @@
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" s="11">
         <v>255</v>
@@ -1294,7 +1294,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="b">
         <v>1</v>
@@ -1318,10 +1318,10 @@
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>0</v>
@@ -1336,40 +1336,40 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="R7" s="11">
         <v>-1</v>
@@ -1380,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="b">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="6" t="b">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="b">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>24</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" s="6" t="b">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="b">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>24</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" s="6" t="b">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5" t="b">
         <v>1</v>
@@ -1518,10 +1518,10 @@
         <v>24</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O11" s="6" t="b">
         <v>0</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="5" t="b">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>24</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O12" s="9" t="b">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="b">
         <v>0</v>
@@ -1597,16 +1597,16 @@
         <v>24</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="6" t="b">
         <v>1</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R13" s="11">
         <v>255</v>
@@ -1617,7 +1617,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="b">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="6" t="b">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="b">
         <v>0</v>
@@ -1682,16 +1682,16 @@
         <v>24</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="6" t="b">
         <v>1</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R15" s="11">
         <v>255</v>
@@ -1702,7 +1702,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>24</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O16" s="6" t="b">
         <v>0</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="5" t="b">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>24</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O17" s="6" t="b">
         <v>0</v>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="5" t="b">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>24</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O18" s="9" t="b">
         <v>0</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="5" t="b">
         <v>1</v>
@@ -1840,19 +1840,19 @@
         <v>24</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="O19" s="6" t="b">
         <v>1</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R19" s="11">
         <v>255</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="5" t="b">
         <v>1</v>
@@ -1887,16 +1887,16 @@
         <v>24</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O20" s="6" t="b">
         <v>1</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R20" s="11">
         <v>255</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="5" t="b">
         <v>1</v>
@@ -1931,16 +1931,16 @@
         <v>24</v>
       </c>
       <c r="K21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="O21" s="6" t="b">
         <v>1</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R21" s="11">
         <v>255</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O22" s="6" t="b">
         <v>0</v>
@@ -2025,22 +2025,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -2061,16 +2061,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -2078,7 +2078,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="6" t="b">
         <v>0</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O3" s="6" t="b">
         <v>0</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="b">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O4" s="6" t="b">
         <v>0</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="5" t="b">
         <v>0</v>
@@ -2216,14 +2216,14 @@
         <v>24</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O5" s="9" t="b">
         <v>0</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="5" t="b">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>24</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5" t="b">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>24</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O7" s="6" t="b">
         <v>0</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="5" t="b">
         <v>0</v>
@@ -2339,10 +2339,10 @@
         <v>24</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O8" s="6" t="b">
         <v>0</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="5" t="b">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>24</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O9" s="6" t="b">
         <v>0</v>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5" t="b">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O10" s="6" t="b">
         <v>0</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="5" t="b">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O11" s="6" t="b">
         <v>0</v>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="5" t="b">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O12" s="9" t="b">
         <v>0</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5" t="b">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O13" s="6" t="b">
         <v>0</v>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="5" t="b">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O14" s="6" t="b">
         <v>0</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="5" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>24</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O15" s="6" t="b">
         <v>0</v>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5" t="b">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O16" s="6" t="b">
         <v>0</v>
@@ -2702,22 +2702,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>3</v>
@@ -2738,16 +2738,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="6" t="b">
         <v>0</v>
@@ -2790,10 +2790,10 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>1</v>
@@ -2817,16 +2817,16 @@
         <v>24</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R3" s="6">
         <v>50</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>1</v>
@@ -2858,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O4" s="6" t="b">
         <v>0</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="b">
         <v>1</v>
@@ -2896,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O5" s="9" t="b">
         <v>0</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="6" t="b">
         <v>1</v>
@@ -2935,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>0</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="b">
         <v>1</v>
@@ -2977,10 +2977,10 @@
         <v>24</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="6" t="b">
         <v>0</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="6" t="b">
         <v>1</v>
@@ -3018,19 +3018,19 @@
         <v>24</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O8" s="6" t="b">
         <v>1</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R8" s="6">
         <v>255</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="6" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>24</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" s="6" t="b">
         <v>0</v>
@@ -3076,10 +3076,10 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="6" t="b">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>24</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O10" s="6" t="b">
         <v>0</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="6" t="b">
         <v>1</v>
@@ -3141,19 +3141,19 @@
         <v>24</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="6" t="b">
         <v>1</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R11" s="6">
         <v>255</v>
@@ -4187,22 +4187,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -4223,16 +4223,16 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4264,7 +4264,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="6" t="b">
         <v>0</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="b">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="K3" s="1"/>
       <c r="N3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" s="6" t="b">
         <v>0</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
@@ -4336,16 +4336,16 @@
         <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R4" s="5">
         <v>255</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
@@ -4377,17 +4377,17 @@
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O5" s="9" t="b">
         <v>0</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R5" s="5">
         <v>255</v>
